--- a/ZZ_Other/21_Exp_Smoothing_Seasonal_solved.xlsx
+++ b/ZZ_Other/21_Exp_Smoothing_Seasonal_solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/197ab797fdac369a/IE_Classes/2022_Fall/ZZ_Notebooks/NB_BDBA_Fall2022_Students/ZZ_Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="11_BBFED23B00E964876C072CFA5F3D01606ADF67E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B14A12-C2EB-48F8-BAC8-61C5AC7A603D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3CA8B6C5-EC14-4D04-B0D8-D934C37DF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,6 +571,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523409</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACD695C-C1E2-8ADA-F77E-DC4F4EB848DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10837333" y="266364"/>
+          <a:ext cx="4511209" cy="2280275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -596,7 +645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -645,7 +694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -738,131 +787,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>413791</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>117318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>483433</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85568</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851ED46A-A88E-5065-C1F0-963DA541728C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10463724" y="303585"/>
-          <a:ext cx="4048976" cy="1830916"/>
-          <a:chOff x="10279686" y="297792"/>
-          <a:chExt cx="4030036" cy="1772987"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B73718-F02A-CE41-F0A2-0D95187D3EAF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10279686" y="297792"/>
-            <a:ext cx="4030036" cy="1772987"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88E1FE-5A80-4271-A21E-4221DA506E45}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10289005" y="312819"/>
-            <a:ext cx="4018548" cy="1047607"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1500"/>
-              <a:t>Re-writing this equation for t instead of for t+1 makes it more</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1500" baseline="0"/>
-              <a:t> clear because the indexes are consistent with those of the other three equations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1500"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1041,13 +965,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>280737</xdr:colOff>
+      <xdr:colOff>119870</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>669636</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>77964</xdr:rowOff>
     </xdr:to>
@@ -1066,8 +990,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9378555" y="1743364"/>
-          <a:ext cx="1185536" cy="181873"/>
+          <a:off x="9373937" y="1820333"/>
+          <a:ext cx="1869796" cy="120298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1091,6 +1015,50 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>252476</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>184438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85ABB20-B8CD-6451-5585-3AC3CC5CB1B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10049933" y="17365133"/>
+          <a:ext cx="12190476" cy="6161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1379,7 +1347,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M94" sqref="M94"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ZZ_Other/21_Exp_Smoothing_Seasonal_solved.xlsx
+++ b/ZZ_Other/21_Exp_Smoothing_Seasonal_solved.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/197ab797fdac369a/IE_Classes/2022_Fall/ZZ_Notebooks/NB_BDBA_Fall2022_Students/ZZ_Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3CA8B6C5-EC14-4D04-B0D8-D934C37DF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="14_{3CA8B6C5-EC14-4D04-B0D8-D934C37DF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108F1639-E2CE-4B25-9AC1-09C06D66B56C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Additive" sheetId="1" r:id="rId1"/>
+    <sheet name="Interpretation of terms" sheetId="2" r:id="rId1"/>
+    <sheet name="Additive" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>Quarter</t>
   </si>
@@ -295,13 +318,61 @@
     <t>Forecast</t>
   </si>
   <si>
-    <t>Horizon</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Fitted Val</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Cell of season</t>
+  </si>
+  <si>
+    <t>2018 Q1</t>
+  </si>
+  <si>
+    <t>2018 Q2</t>
+  </si>
+  <si>
+    <t>2019 Q1</t>
+  </si>
+  <si>
+    <t>2019 Q2</t>
+  </si>
+  <si>
+    <t>2018 Q3</t>
+  </si>
+  <si>
+    <t>2018 Q4</t>
+  </si>
+  <si>
+    <t>2019 Q3</t>
+  </si>
+  <si>
+    <t>2019 Q4</t>
+  </si>
+  <si>
+    <t>2020 Q1</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>2020 Q3</t>
+  </si>
+  <si>
+    <t>2020 Q4</t>
+  </si>
+  <si>
+    <t>m(k+1)</t>
+  </si>
+  <si>
+    <t>t+h-m(k+1)</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -314,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="&quot;beta*=&quot;0.0000"/>
     <numFmt numFmtId="167" formatCode="&quot;alpha=&quot;0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,6 +395,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -381,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -514,17 +599,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +659,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -550,6 +668,55 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,6 +735,277 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348857</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E92EEC4-8830-4E29-9060-C8B8116AAE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1280160"/>
+          <a:ext cx="5225657" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0F92EF-7ACC-41DB-90E6-07EAA7008E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2194560"/>
+          <a:ext cx="4853940" cy="723977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526248</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D702C993-D1A8-4317-A03E-5F0867DEDED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3108960"/>
+          <a:ext cx="5403048" cy="716342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E159A5E5-DA4D-46ED-BF42-9C4704451AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="2943726" cy="508896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED6E1FD-2E19-76A8-A735-2074C6EE2239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6576060" y="358140"/>
+          <a:ext cx="2179320" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Poner los dibujos de cada una</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -620,14 +1058,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15238</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119870</xdr:colOff>
+      <xdr:colOff>27505</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>153118</xdr:rowOff>
     </xdr:to>
@@ -652,8 +1090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6419649" y="1627073"/>
-          <a:ext cx="2934904" cy="511256"/>
+          <a:off x="6457602" y="1665355"/>
+          <a:ext cx="2956358" cy="519763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,16 +1107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>782053</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20051</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>166838</xdr:rowOff>
+      <xdr:rowOff>109113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>655052</xdr:colOff>
+      <xdr:colOff>562687</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>98261</xdr:rowOff>
+      <xdr:rowOff>40536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -701,8 +1139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6416842" y="2332522"/>
-          <a:ext cx="4261184" cy="1014265"/>
+          <a:off x="6462415" y="2325840"/>
+          <a:ext cx="4283363" cy="1039787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,16 +1229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>391027</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>140369</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148578</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>94187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561028</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>81448</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410944</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>35266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -823,8 +1261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6025816" y="16603580"/>
-          <a:ext cx="3769895" cy="492526"/>
+          <a:off x="7606942" y="17158369"/>
+          <a:ext cx="3783729" cy="506806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,16 +1278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>399493</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>128782</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133953</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>13327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516471</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -864,8 +1302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6046760" y="16359382"/>
-          <a:ext cx="4807506" cy="590885"/>
+          <a:off x="7592317" y="16511782"/>
+          <a:ext cx="4700518" cy="589345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,16 +1353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>421107</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167112</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>103911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>270044</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>789595</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>30901</xdr:rowOff>
+      <xdr:rowOff>146355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -947,8 +1385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6055896" y="17195134"/>
-          <a:ext cx="1534027" cy="401872"/>
+          <a:off x="7625476" y="17733820"/>
+          <a:ext cx="1534574" cy="411899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,13 +1403,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119870</xdr:colOff>
+      <xdr:colOff>154505</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>143933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
+      <xdr:colOff>432568</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>77964</xdr:rowOff>
     </xdr:to>
@@ -990,8 +1428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9373937" y="1820333"/>
-          <a:ext cx="1869796" cy="120298"/>
+          <a:off x="9413960" y="1806478"/>
+          <a:ext cx="1871335" cy="118759"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1015,50 +1453,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>252476</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>184438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85ABB20-B8CD-6451-5585-3AC3CC5CB1B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10049933" y="17365133"/>
-          <a:ext cx="12190476" cy="6161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1342,18 +1736,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3CE565-C113-4ED6-BDF9-086691991D2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1378,15 +1787,15 @@
         <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="6">
+        <v>88</v>
+      </c>
+      <c r="I1" s="5">
         <v>0.26200000000000001</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>0.1646</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>1E-4</v>
       </c>
     </row>
@@ -1394,7 +1803,7 @@
       <c r="B2">
         <v>-3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1402,7 +1811,7 @@
       <c r="B3">
         <v>-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>-0.3</v>
       </c>
     </row>
@@ -1410,7 +1819,7 @@
       <c r="B4">
         <v>-1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>-0.7</v>
       </c>
     </row>
@@ -1418,2478 +1827,2658 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>11.8060376221</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f>$I$1*(C6-F2)+(1-$I$1)*(D5+E5)</f>
         <v>9.9325818569902005</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>$J$1*(D6-D5)+(1-$J$1)*E5</f>
         <v>2.1822973660586879E-2</v>
       </c>
-      <c r="F6" s="12">
-        <f>$K$1*(C6-D5-E5)+(1-K1)*F2</f>
+      <c r="F6" s="11">
+        <f>$K$1*(C6-D5-E5)+(1-$K$1)*F2</f>
         <v>1.5000506037622099</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>D5+E5+F2</f>
         <v>11.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>9.2756620743999996</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:D70" si="0">$I$1*(C7-F3)+(1-$I$1)*(D6+E6)</f>
         <v>9.8551742285130821</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" ref="E7:E70" si="1">$J$1*(D7-D6)+(1-$J$1)*E6</f>
         <v>5.4896165487205995E-3</v>
       </c>
-      <c r="F7" s="12">
-        <f t="shared" ref="F7:F70" si="2">$K$1*(C7-D6-E6)+(1-K2)*F3</f>
-        <v>-0.30006787427562509</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:F70" si="2">$K$1*(C7-D6-E6)+(1-$K$1)*F3</f>
+        <v>-0.30003787427562512</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" ref="G7:G70" si="3">D6+E6+F3</f>
         <v>9.6544048306507868</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>8.6424885897999992</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>9.7249019281832094</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>-1.6856794969495853E-2</v>
       </c>
-      <c r="F8" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70012181752552616</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.70005181752552614</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="3"/>
         <v>9.1606638450618032</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>9.2995237805999995</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>9.732012538828922</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>-1.2911760005232541E-2</v>
       </c>
-      <c r="F9" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50004085213526139</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.4999908521352614</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="3"/>
         <v>9.2080451332137141</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>11.172027056399999</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>9.7067542053629836</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>-1.4944005996864729E-2</v>
       </c>
-      <c r="F10" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5001958963899675</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000458913295913</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="3"/>
         <v>11.219151382585899</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>9.6076131866000001</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>9.7483683650816086</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="1"/>
-        <v>-5.6345319200951146E-3</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30007629397690172</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="3"/>
-        <v>9.3917423250904939</v>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>9.7483605050816102</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>-5.6358256760948543E-3</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30001629018947418</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="3"/>
+        <v>9.3917723250904928</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>8.9138865198000001</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>9.7090077532524859</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.1185844673121064E-2</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70020470225686227</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="3"/>
-        <v>9.0426120156359886</v>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>9.7089826577805596</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.1189762435562578E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.7000646961597341</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>9.0426728618799892</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>9.0256883618000003</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>9.652733622582609</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.8607376548187067E-2</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50010806548993936</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="3"/>
-        <v>9.1977810564441018</v>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6526991108156466</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.8612199369093658E-2</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50000806350340232</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="3"/>
+        <v>9.1978020432097338</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>11.070865789000001</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6175006814372317</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.1343944480884586E-2</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5003395703442641</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="3"/>
-        <v>11.13432214242439</v>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6175109538372041</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.1340601991592472E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000395646282136</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="3"/>
+        <v>11.134132802776145</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>9.1962623222000008</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5700043893121318</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.5648620903122421E-2</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30011628341837737</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="3"/>
-        <v>9.296080442979445</v>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5699987161081026</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.564845323398646E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.3000262793634198</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="3"/>
+        <v>9.2961540616561376</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>9.3475058063999992</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6762347103539454</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.9413470589859494E-3</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70022438725306313</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="3"/>
-        <v>8.844151066152147</v>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6761939656717484</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.9469797534961958E-3</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.7000143741357655</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8442855667143832</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>8.9840142166000003</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6229925400192435</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.2056262570168796E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.5001768934046088</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="3"/>
-        <v>9.1721852978050205</v>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6229321129947607</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.2064207836702895E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50002688597398381</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="3"/>
+        <v>9.1722389224148486</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>10.6723143049</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4959283532110188</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.0986566899752804E-2</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5004457081470093</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="3"/>
-        <v>11.111275847793339</v>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4959564959578557</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.0978625791056154E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
+        <v>1.499995705311725</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="3"/>
+        <v>11.110907469786271</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>14</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>9.5334921444000003</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5615324463861295</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.5087744251430266E-2</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30010942838256849</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="3"/>
-        <v>9.1648255028928887</v>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5615354952091138</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5085240709091228E-2</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29998942530806016</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="3"/>
+        <v>9.1649515908033798</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>15</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>8.8071590872000005</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5362106604821122</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.6772267507446099E-2</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70029831581455659</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8462203148816361</v>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5361597346909868</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.6779060269658527E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.70001830181508196</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8464358803642575</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>8.9769448476000004</v>
       </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5083514301585108</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.859718158698526E-2</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50023114275914626</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="3"/>
-        <v>9.0192614995700566</v>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5082695319193249</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.8607954325488278E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5000311268680685</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="3"/>
+        <v>9.0193537884473436</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>17</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>10.8426194436</v>
       </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4510881541344691</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.4961620731324748E-2</v>
-      </c>
-      <c r="F22" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5005809946665121</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="3"/>
-        <v>10.990199956718534</v>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4511376636957785</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.4948990553108653E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4999810015277943</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="3"/>
+        <v>10.989657282905561</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>18</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>9.2327454263999993</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4540893536045534</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.0358940526172823E-2</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30012876649326881</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" si="3"/>
-        <v>9.1260171050205763</v>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4541037719268015</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.0354165293240575E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29997877069020362</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="3"/>
+        <v>9.1261992478346095</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>8.8362141348000005</v>
       </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4606593069128593</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.5926444601017626E-2</v>
-      </c>
-      <c r="F24" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70035806744238438</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="3"/>
-        <v>8.7334320972638242</v>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4606001080887197</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5934572753721451E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.70000805353208384</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="3"/>
+        <v>8.7337313048184804</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>20</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>9.2475412624000004</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5241292225378356</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.8578037078190299E-3</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50025086191913748</v>
-      </c>
-      <c r="G25" s="11">
-        <f t="shared" si="3"/>
-        <v>8.9445017195526955</v>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5240271310654627</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.8716540964869898E-3</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50000083618267521</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9446344084669303</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>21</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>10.5015589713</v>
       </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3849545369745258</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.5295562461232813E-2</v>
-      </c>
-      <c r="F26" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5006790234217591</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" si="3"/>
-        <v>11.021852413496529</v>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3850261700834228</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.5278538009849007E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4999290437770747</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="3"/>
+        <v>11.021136478496771</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>22</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>9.0935298810000003</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3685668888340459</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.3829319764036884E-2</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30015537940262016</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="3"/>
-        <v>9.0595302080200248</v>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3685930192131313</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.3822587286677844E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29997539458824196</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="3"/>
+        <v>9.05976886138337</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>23</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>8.8405427455000005</v>
       </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3961323389645717</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.5369740639391866E-2</v>
-      </c>
-      <c r="F28" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70040848692474134</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" si="3"/>
-        <v>8.6443795016276255</v>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3960648881081283</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.537951979917415E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69998847549537324</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="3"/>
+        <v>8.6447623783943701</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>24</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>8.8412606339999993</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3704788094947968</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.7062452280872904E-2</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50030481211556999</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8805117364060422</v>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3703563069998701</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.7079683290649392E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50000477857248782</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8806845321262795</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>25</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>10.701459552799999</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3134257703209755</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.3644902883452213E-2</v>
-      </c>
-      <c r="F30" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5008138277413177</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="3"/>
-        <v>10.854095380635682</v>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3135191416614109</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.3623764835718881E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="2"/>
+        <v>1.499913869165606</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>10.853205667486295</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>26</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>9.2112662671999992</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>9.347850751578779</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.4086599953801529E-2</v>
-      </c>
-      <c r="F31" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.3001632308626439</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="3"/>
-        <v>8.9896254880349034</v>
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3478881034858787</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.4078162027452153E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.2999532599597457</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9899199822374491</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>27</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>8.9244407030000001</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4100284316595157</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.5334994601165271E-3</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.7004494192696038</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="3"/>
-        <v>8.6333556647002361</v>
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4099521815621063</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5451493063864657E-3</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69995941357166958</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>8.6338214659630523</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>28</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>8.3785842485999993</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2697381938706371</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.4372858589030766E-2</v>
-      </c>
-      <c r="F33" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50040780318392997</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" si="3"/>
-        <v>8.9081901200838303</v>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2695947149239117</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.4393656739202085E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5000577603729961</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9084022536832332</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>29</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>10.928984657799999</v>
       </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2932603749131992</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.6489335065670581E-2</v>
-      </c>
-      <c r="F34" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5009821896735696</v>
-      </c>
-      <c r="G34" s="11">
-        <f t="shared" si="3"/>
-        <v>10.746179163022925</v>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2933749275625264</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.6464237839613455E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
+        <v>1.499932256138651</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="3"/>
+        <v>10.745114927350317</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>30</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>8.0662598024999994</v>
       </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0382598621484895</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="1"/>
-        <v>-5.5748274914932415E-2</v>
-      </c>
-      <c r="F35" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30028428198637863</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" si="3"/>
-        <v>8.976607808984884</v>
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0383079113799631</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="1"/>
+        <v>-5.5738255154862984E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30004432972247203</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="3"/>
+        <v>8.976957429763166</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>31</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>8.1004925164999992</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9349403385499997</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="1"/>
-        <v>-6.3578502448245977E-2</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70053762117667717</v>
-      </c>
-      <c r="G36" s="11">
-        <f t="shared" si="3"/>
-        <v>8.2820621679639537</v>
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>8.934854811972901</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="1"/>
+        <v>-6.359211851877497E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69997762534428498</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="3"/>
+        <v>8.2826102426534316</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>32</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>7.7370418715999998</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>8.7052768498364834</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="1"/>
-        <v>-9.0916091187509471E-2</v>
-      </c>
-      <c r="F37" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50052123518038016</v>
-      </c>
-      <c r="G37" s="11">
-        <f t="shared" si="3"/>
-        <v>8.3709540329178243</v>
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>8.7051119713460707</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="1"/>
+        <v>-9.0940527377760871E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50012117667914424</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="3"/>
+        <v>8.3712049330811293</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>33</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>11.219247032</v>
       </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9035836285724681</v>
-      </c>
-      <c r="E38" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.3310006798102339E-2</v>
-      </c>
-      <c r="F38" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5012426783009047</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="3"/>
-        <v>10.115342948322544</v>
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9037189969242867</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.3281000161207089E-2</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000427704718402</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="3"/>
+        <v>10.114103700106961</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>34</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>9.2740465160000003</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0473566019419138</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.2516148262523927E-2</v>
-      </c>
-      <c r="F39" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30024290469695608</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" si="3"/>
-        <v>8.5599893397879878</v>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0474150431904405</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.2504578319263483E-2</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.2999729644375761</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5603936670406089</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>35</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>7.7962113449999997</v>
       </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>8.893860483953679</v>
-      </c>
-      <c r="E40" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.572145127937594E-2</v>
-      </c>
-      <c r="F40" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70066148408754514</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" si="3"/>
-        <v>8.3343028325027131</v>
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8937654333051306</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.573705051503473E-2</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.70003149749373761</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="3"/>
+        <v>8.3349328395268909</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>36</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>8.9284028939999995</v>
       </c>
-      <c r="D41" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0076847279588961</v>
-      </c>
-      <c r="E41" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.1106229835531934E-2</v>
-      </c>
-      <c r="F41" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50051420879424757</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" si="3"/>
-        <v>8.3576177974939228</v>
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>9.007498253017026</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.1134309875682029E-2</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50006412711035542</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="3"/>
+        <v>8.3579072061109514</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>37</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>10.9103053791</v>
       </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>9.1046493592244069</v>
-      </c>
-      <c r="E42" s="12">
-        <f t="shared" si="1"/>
-        <v>6.6822339016997002E-3</v>
-      </c>
-      <c r="F42" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5014340509890025</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="3"/>
-        <v>10.497821176424269</v>
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>9.1048053934988893</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7151528531699273E-3</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000841603383888</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="3"/>
+        <v>10.496406713613183</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>38</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>9.3564126837000003</v>
       </c>
-      <c r="D43" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2542064798870705</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="shared" si="1"/>
-        <v>3.0199440262554354E-2</v>
-      </c>
-      <c r="F43" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30021839658789867</v>
-      </c>
-      <c r="G43" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8110886884291499</v>
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2542752030198638</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0212569340690568E-2</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29991847792739756</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8115475819144837</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>39</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>8.6174603826999991</v>
       </c>
-      <c r="D44" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2932394981687612</v>
-      </c>
-      <c r="E44" s="12">
-        <f t="shared" si="1"/>
-        <v>3.16534472045042E-2</v>
-      </c>
-      <c r="F44" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70072817864129011</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="3"/>
-        <v>8.58374443606208</v>
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2931348486128478</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1635878091818059E-2</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.70002819708295427</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5844562748668167</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>40</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>8.7163509356999995</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2965896615429635</v>
-      </c>
-      <c r="E45" s="12">
-        <f t="shared" si="1"/>
-        <v>2.6994726686036516E-2</v>
-      </c>
-      <c r="F45" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50057506299521493</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8243787365790176</v>
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2963815427643564</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="1"/>
+        <v>2.6963018415243119E-2</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50007496267674489</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8247065995943093</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>41</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>11.9514914676</v>
       </c>
-      <c r="D46" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6187203216650836</v>
-      </c>
-      <c r="E46" s="12">
-        <f t="shared" si="1"/>
-        <v>7.5574101329615867E-2</v>
-      </c>
-      <c r="F46" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5016968416969396</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" si="3"/>
-        <v>10.825018439218002</v>
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6188970006530852</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="1"/>
+        <v>7.561094995257886E-2</v>
+      </c>
+      <c r="F46" s="11">
+        <f>$K$1*(C46-D45-E45)+(1-$K$1)*F42</f>
+        <v>1.5001969666129971</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="3"/>
+        <v>10.823428721517988</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>42</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>8.4994602312000005</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4599050846505186</v>
-      </c>
-      <c r="E47" s="12">
-        <f t="shared" si="1"/>
-        <v>3.6993616238163704E-2</v>
-      </c>
-      <c r="F47" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30033788000707812</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="3"/>
-        <v>9.3940760264068004</v>
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4599840893383575</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7008322387980214E-2</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30000799085154539</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="3"/>
+        <v>9.3945894726782662</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>43</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>8.4822356138000004</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" si="0"/>
-        <v>9.4146477548754657</v>
-      </c>
-      <c r="E48" s="12">
-        <f t="shared" si="1"/>
-        <v>2.3455110524388249E-2</v>
-      </c>
-      <c r="F48" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.700829644949999</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="3"/>
-        <v>8.796170522247392</v>
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>9.4145335183053707</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3435588530889031E-2</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.7000596699430387</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="3"/>
+        <v>8.7969642146433831</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>44</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>8.3911066981999998</v>
       </c>
-      <c r="D49" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2949405360982382</v>
-      </c>
-      <c r="E49" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.0940887865769355E-4</v>
-      </c>
-      <c r="F49" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50067976261193492</v>
-      </c>
-      <c r="G49" s="11">
-        <f t="shared" si="3"/>
-        <v>8.9375278024046381</v>
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2947107959948667</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.4472943360425289E-4</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50012964142134075</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9378941441595146</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>45</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>10.1319747752</v>
       </c>
-      <c r="D50" s="12">
-        <f t="shared" si="0"/>
-        <v>9.120718190465853</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.8768398268321251E-2</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5017805560617377</v>
-      </c>
-      <c r="G50" s="11">
-        <f t="shared" si="3"/>
-        <v>10.796527968916521</v>
+      <c r="D50" s="11">
+        <f t="shared" si="0"/>
+        <v>9.120915542972007</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.8727605616395698E-2</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5001306877871996</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="3"/>
+        <v>10.794763033174259</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>46</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>8.4004153107999997</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9894562826332329</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.5638829942604833E-2</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30040703345521785</v>
-      </c>
-      <c r="G51" s="11">
-        <f t="shared" si="3"/>
-        <v>8.7916119121904543</v>
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9895456028011456</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.5622533884060762E-2</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30004716731511577</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="3"/>
+        <v>8.7921799465040653</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>47</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>8.6903039877000001</v>
       </c>
-      <c r="D52" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0610142918399834</v>
-      </c>
-      <c r="E52" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.6348230218620948E-2</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70085499629649806</v>
-      </c>
-      <c r="G52" s="11">
-        <f t="shared" si="3"/>
-        <v>8.2429878077406276</v>
+      <c r="D52" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0608905031632858</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.6369694207136078E-2</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.7000150258841662</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="3"/>
+        <v>8.243863398974046</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>48</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>8.2623477396999991</v>
       </c>
-      <c r="D53" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9634967590822914</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.8062697416552049E-2</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50075699444412702</v>
-      </c>
-      <c r="G53" s="11">
-        <f t="shared" si="3"/>
-        <v>8.5339862990094275</v>
+      <c r="D53" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9632454308634308</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.8101621441197608E-2</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50015684576412434</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5343911675348103</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>49</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>10.1570168073</v>
       </c>
-      <c r="D54" s="12">
-        <f t="shared" si="0"/>
-        <v>8.854642235333742</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.9715032030798821E-2</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="2"/>
-        <v>1.501903714336301</v>
-      </c>
-      <c r="G54" s="11">
-        <f t="shared" si="3"/>
-        <v>10.427214617727477</v>
+      <c r="D54" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8548602946659614</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.9670287970079954E-2</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5001038620182088</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="3"/>
+        <v>10.425274497209433</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>50</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>8.7339279789000006</v>
       </c>
-      <c r="D55" s="12">
-        <f t="shared" si="0"/>
-        <v>8.8650320492746388</v>
-      </c>
-      <c r="E55" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.9821774383857707E-2</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30041413337765815</v>
-      </c>
-      <c r="G55" s="11">
-        <f t="shared" si="3"/>
-        <v>8.5045201698477264</v>
+      <c r="D55" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8651317132499212</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.9803883071285004E-2</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30002428880116383</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5051428393807651</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>51</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>8.6065129202000001</v>
       </c>
-      <c r="D56" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9515355769914784</v>
-      </c>
-      <c r="E56" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.9028629658082941E-2</v>
-      </c>
-      <c r="F56" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70087686603196708</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" si="3"/>
-        <v>8.1243552785942832</v>
+      <c r="D56" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9514022605458852</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.9052031832835829E-2</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69996690587257571</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="3"/>
+        <v>8.1253128042944702</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>52</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>8.5046833330999991</v>
       </c>
-      <c r="D57" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9516154929486067</v>
-      </c>
-      <c r="E57" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.5883363049819171E-2</v>
-      </c>
-      <c r="F57" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50079977680555032</v>
-      </c>
-      <c r="G57" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4317499528892697</v>
+      <c r="D57" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9513425956526316</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5925888234580594E-2</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50014959676910919</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4321933829489257</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>53</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>9.8464424492999996</v>
       </c>
-      <c r="D58" s="12">
-        <f t="shared" si="0"/>
-        <v>8.7808394604257956</v>
-      </c>
-      <c r="E58" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.1378696445073651E-2</v>
-      </c>
-      <c r="F58" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5019947853682412</v>
-      </c>
-      <c r="G58" s="11">
-        <f t="shared" si="3"/>
-        <v>10.437635844235089</v>
+      <c r="D58" s="11">
+        <f t="shared" si="0"/>
+        <v>8.7810782399423513</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.1329999981080764E-2</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000449542061951</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="3"/>
+        <v>10.43552056943626</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>54</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>9.0092215278999994</v>
       </c>
-      <c r="D59" s="12">
-        <f t="shared" si="0"/>
-        <v>8.8888465870725177</v>
-      </c>
-      <c r="E59" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.678978996416406E-2</v>
-      </c>
-      <c r="F59" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30038715730126625</v>
-      </c>
-      <c r="G59" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4390466306030643</v>
+      <c r="D59" s="11">
+        <f t="shared" si="0"/>
+        <v>8.888956605067122</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.6770303084657604E-2</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29996733904348982</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4397239511601079</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>55</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>8.4494986274000006</v>
       </c>
-      <c r="D60" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9449762955451408</v>
-      </c>
-      <c r="E60" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.787240521468894E-3</v>
-      </c>
-      <c r="F60" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.7009191218489379</v>
-      </c>
-      <c r="G60" s="11">
-        <f t="shared" si="3"/>
-        <v>8.1711799310763862</v>
+      <c r="D60" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9448334605804742</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.8125807794251914E-3</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69993917794944671</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="3"/>
+        <v>8.1722193961098899</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>56</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>8.4886335158000001</v>
       </c>
-      <c r="D61" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9530910452701242</v>
-      </c>
-      <c r="E61" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.6635729269028499E-3</v>
-      </c>
-      <c r="F61" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50084493235947269</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4393892782181208</v>
+      <c r="D61" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9527965847862809</v>
+      </c>
+      <c r="E61" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.7096997388560235E-3</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50014472054583237</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4398712830319393</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>57</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>10.267920372100001</v>
       </c>
-      <c r="D62" s="12">
-        <f t="shared" si="0"/>
-        <v>8.902087978313018</v>
-      </c>
-      <c r="E62" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.0620253644274325E-2</v>
-      </c>
-      <c r="F62" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5021265346582169</v>
-      </c>
-      <c r="G62" s="11">
-        <f t="shared" si="3"/>
-        <v>10.452422257711463</v>
+      <c r="D62" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9023474806531766</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0567605702149294E-2</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000267330594799</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="3"/>
+        <v>10.45013183925362</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>58</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>8.6029121388000007</v>
       </c>
-      <c r="D63" s="12">
-        <f t="shared" si="0"/>
-        <v>8.8945675963840642</v>
-      </c>
-      <c r="E63" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.0110014759932562E-2</v>
-      </c>
-      <c r="F63" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30041601285985314</v>
-      </c>
-      <c r="G63" s="11">
-        <f t="shared" si="3"/>
-        <v>8.5910805673674773</v>
+      <c r="D63" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8946879709088531</v>
+      </c>
+      <c r="E63" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.008893310749117E-2</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29996622908320059</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5918125359075361</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>59</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>8.3503765221999995</v>
       </c>
-      <c r="D64" s="12">
-        <f t="shared" si="0"/>
-        <v>8.9281691539794306</v>
-      </c>
-      <c r="E64" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.9150899502503663E-3</v>
-      </c>
-      <c r="F64" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70097252995488035</v>
-      </c>
-      <c r="G64" s="11">
-        <f t="shared" si="3"/>
-        <v>8.1835384597751926</v>
+      <c r="D64" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9280168033365594</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.94236890039766E-3</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.6999226062832119</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="3"/>
+        <v>8.1846598598519158</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>60</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>9.2374914173999993</v>
       </c>
-      <c r="D65" s="12">
-        <f t="shared" si="0"/>
-        <v>9.138281622890517</v>
-      </c>
-      <c r="E65" s="12">
-        <f t="shared" si="1"/>
-        <v>3.2149246238325678E-2</v>
-      </c>
-      <c r="F65" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50081370862413566</v>
-      </c>
-      <c r="G65" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4244091316697087</v>
+      <c r="D65" s="11">
+        <f t="shared" si="0"/>
+        <v>9.1379656007556953</v>
+      </c>
+      <c r="E65" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2099517075797557E-2</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.50006346437548144</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4249297138903305</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>61</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>10.7866854306</v>
       </c>
-      <c r="D66" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2003324121538341</v>
-      </c>
-      <c r="E66" s="12">
-        <f t="shared" si="1"/>
-        <v>3.7071040220239264E-2</v>
-      </c>
-      <c r="F66" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5022881601143641</v>
-      </c>
-      <c r="G66" s="11">
-        <f t="shared" si="3"/>
-        <v>10.67255740378706</v>
+      <c r="D66" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2006126357152578</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7127638519465267E-2</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000383924174507</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="3"/>
+        <v>10.670091850890973</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>62</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>9.0333038231000007</v>
       </c>
-      <c r="D67" s="12">
-        <f t="shared" si="0"/>
-        <v>9.2626383448735474</v>
-      </c>
-      <c r="E67" s="12">
-        <f t="shared" si="1"/>
-        <v>4.1224703525652689E-2</v>
-      </c>
-      <c r="F67" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.30043642282278055</v>
-      </c>
-      <c r="G67" s="11">
-        <f t="shared" si="3"/>
-        <v>8.936987439514219</v>
+      <c r="D67" s="11">
+        <f t="shared" si="0"/>
+        <v>9.262769076057225</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1247379299449091E-2</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29995667610540577</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9377740451515226</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>63</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>8.7810029437000008</v>
       </c>
-      <c r="D68" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3505285038161894</v>
-      </c>
-      <c r="E68" s="12">
-        <f t="shared" si="1"/>
-        <v>4.8905837487289126E-2</v>
-      </c>
-      <c r="F68" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70102481596535027</v>
-      </c>
-      <c r="G68" s="11">
-        <f t="shared" si="3"/>
-        <v>8.6028905184443207</v>
+      <c r="D68" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3503666381488273</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8876619387037509E-2</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.69990491537374921</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="3"/>
+        <v>8.6040938490734629</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>64</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>8.8768492855000005</v>
       </c>
-      <c r="D69" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3937302483424929</v>
-      </c>
-      <c r="E69" s="12">
-        <f t="shared" si="1"/>
-        <v>4.7966943785910897E-2</v>
-      </c>
-      <c r="F69" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.50086596712971598</v>
-      </c>
-      <c r="G69" s="11">
-        <f t="shared" si="3"/>
-        <v>8.8986206326793429</v>
+      <c r="D69" s="11">
+        <f t="shared" si="0"/>
+        <v>9.393392664528843</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7913611778081726E-2</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5000656974262474</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="3"/>
+        <v>8.8991797931603838</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>65</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>11.3552935855</v>
       </c>
-      <c r="D70" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5494599492417986</v>
-      </c>
-      <c r="E70" s="12">
-        <f t="shared" si="1"/>
-        <v>6.5704693606775694E-2</v>
-      </c>
-      <c r="F70" s="12">
-        <f t="shared" si="2"/>
-        <v>1.5024795197537013</v>
-      </c>
-      <c r="G70" s="11">
-        <f t="shared" si="3"/>
-        <v>10.943985352242768</v>
+      <c r="D70" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5497608925021389</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5765241603813973E-2</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5000797873091283</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="3"/>
+        <v>10.941344668724376</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>66</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>10.1989320946</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <f t="shared" ref="D71:D84" si="4">$I$1*(C71-F67)+(1-$I$1)*(D70+E70)</f>
-        <v>9.8468260579870162</v>
-      </c>
-      <c r="E71" s="12">
+        <v>9.8469671448950091</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" ref="E71:E84" si="5">$J$1*(D71-D70)+(1-$J$1)*E70</f>
-        <v>0.10383616253856322</v>
-      </c>
-      <c r="F71" s="12">
-        <f t="shared" ref="F71:F84" si="6">$K$1*(C71-D70-E70)+(1-K66)*F67</f>
-        <v>-0.30037804607760543</v>
-      </c>
-      <c r="G71" s="11">
+        <v>0.10386043197969264</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" ref="F71:F85" si="6">$K$1*(C71-D70-E70)+(1-$K$1)*F67</f>
+        <v>-0.29986833984174582</v>
+      </c>
+      <c r="G71" s="10">
         <f t="shared" ref="G71:G84" si="7">D70+E70+F67</f>
-        <v>9.3147282200257937</v>
+        <v>9.3155694580005459</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>67</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>8.9680363277000001</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <f t="shared" si="4"/>
-        <v>9.8768827383882005</v>
-      </c>
-      <c r="E72" s="12">
+        <v>9.8767113574188521</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="5"/>
-        <v>9.1692059778750667E-2</v>
-      </c>
-      <c r="F72" s="12">
+        <v>9.1660902257259785E-2</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="6"/>
-        <v>-0.70112307855463285</v>
-      </c>
-      <c r="G72" s="11">
+        <v>-0.69993320400712933</v>
+      </c>
+      <c r="G72" s="10">
         <f t="shared" si="7"/>
-        <v>9.2496374045602288</v>
+        <v>9.2509226615009528</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>68</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>9.4143273515000008</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="4"/>
-        <v>9.9545888505281965</v>
-      </c>
-      <c r="E73" s="12">
+        <v>9.9542297064596479</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="5"/>
-        <v>8.9389972797411663E-2</v>
-      </c>
-      <c r="F73" s="12">
+        <v>8.9333037997829823E-2</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="6"/>
-        <v>-0.50092139187438267</v>
-      </c>
-      <c r="G73" s="11">
+        <v>-0.50007109534732241</v>
+      </c>
+      <c r="G73" s="10">
         <f t="shared" si="7"/>
-        <v>9.4677088310372355</v>
+        <v>9.4683065622498646</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>69</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>11.6309335134</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <f t="shared" si="4"/>
-        <v>10.066111317949629</v>
-      </c>
-      <c r="E74" s="12">
+        <v>10.066432981645427</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="5"/>
-        <v>9.3032981412525431E-2</v>
-      </c>
-      <c r="F74" s="12">
+        <v>9.3097479038966272E-2</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="6"/>
-        <v>1.5026382152227087</v>
-      </c>
-      <c r="G74" s="11">
+        <v>1.5000885164072917</v>
+      </c>
+      <c r="G74" s="10">
         <f t="shared" si="7"/>
-        <v>11.546458343079308</v>
+        <v>11.543642531766606</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>70</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>9.7070475323000007</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <f t="shared" si="4"/>
-        <v>10.119393994464202</v>
-      </c>
-      <c r="E75" s="12">
+        <v>10.11954543848622</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="5"/>
-        <v>8.649008122632254E-2</v>
-      </c>
-      <c r="F75" s="12">
+        <v>8.6515944385146995E-2</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="6"/>
-        <v>-0.30042325575431167</v>
-      </c>
-      <c r="G75" s="11">
+        <v>-0.29988360130060004</v>
+      </c>
+      <c r="G75" s="10">
         <f t="shared" si="7"/>
-        <v>9.8587662532845481</v>
+        <v>9.859662120842648</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>71</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>9.5459545704999993</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <f t="shared" si="4"/>
-        <v>10.216676791911921</v>
-      </c>
-      <c r="E76" s="12">
+        <v>10.216495897479938</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="5"/>
-        <v>8.8266562316364303E-2</v>
-      </c>
-      <c r="F76" s="12">
+        <v>8.8233465489717666E-2</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="6"/>
-        <v>-0.70118907150515186</v>
-      </c>
-      <c r="G76" s="11">
+        <v>-0.69992922136796576</v>
+      </c>
+      <c r="G76" s="10">
         <f t="shared" si="7"/>
-        <v>9.5047609971358931</v>
+        <v>9.5061281788642376</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>72</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>10.0461594153</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <f t="shared" si="4"/>
-        <v>10.368383366900163</v>
-      </c>
-      <c r="E77" s="12">
+        <v>10.368002663661205</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="5"/>
-        <v>9.8708788402155495E-2</v>
-      </c>
-      <c r="F77" s="12">
+        <v>9.864825078354672E-2</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="6"/>
-        <v>-0.50094727026827546</v>
-      </c>
-      <c r="G77" s="11">
+        <v>-0.50004694523255466</v>
+      </c>
+      <c r="G77" s="10">
         <f t="shared" si="7"/>
-        <v>9.8040219623539038</v>
+        <v>9.8046582676223331</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>73</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>12.5931781345</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="11">
         <f t="shared" si="4"/>
-        <v>10.630435469463762</v>
-      </c>
-      <c r="E78" s="12">
+        <v>10.630777854800517</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="5"/>
-        <v>0.12559509791312912</v>
-      </c>
-      <c r="F78" s="12">
+        <v>0.12566354516610567</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="6"/>
-        <v>1.5028508238206284</v>
-      </c>
-      <c r="G78" s="11">
+        <v>1.5001511602776565</v>
+      </c>
+      <c r="G78" s="10">
         <f t="shared" si="7"/>
-        <v>11.969730370525028</v>
+        <v>11.966739430852044</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>74</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>9.9801987919999995</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
-        <v>10.631473535235775</v>
-      </c>
-      <c r="E79" s="12">
+        <v>10.631635340220125</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="5"/>
-        <v>0.10509301042270142</v>
-      </c>
-      <c r="F79" s="12">
+        <v>0.10512046773183223</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="6"/>
-        <v>-0.30050083893184937</v>
-      </c>
-      <c r="G79" s="11">
+        <v>-0.29993123720126663</v>
+      </c>
+      <c r="G79" s="10">
         <f t="shared" si="7"/>
-        <v>10.455607311622579</v>
+        <v>10.456557798666022</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>75</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="9">
         <v>9.9396175664000008</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
-        <v>10.711477449827106</v>
-      </c>
-      <c r="E80" s="12">
+        <v>10.71128704466375</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="5"/>
-        <v>0.10096334524885774</v>
-      </c>
-      <c r="F80" s="12">
+        <v>0.10092830929459339</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="6"/>
-        <v>-0.70126876640307767</v>
-      </c>
-      <c r="G80" s="11">
+        <v>-0.6999389422699841</v>
+      </c>
+      <c r="G80" s="10">
         <f t="shared" si="7"/>
-        <v>10.035377474153325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="9" t="s">
+        <v>10.036826586583992</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>76</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>10.0849646705</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
-        <v>10.753090235247349</v>
-      </c>
-      <c r="E81" s="12">
+        <v>10.752687974543187</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="5"/>
-        <v>9.1194243101067801E-2</v>
-      </c>
-      <c r="F81" s="17">
+        <v>9.1130102642858618E-2</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="6"/>
-        <v>-0.50102001788073303</v>
-      </c>
-      <c r="G81" s="11">
+        <v>-0.50006966560637722</v>
+      </c>
+      <c r="G81" s="10">
         <f t="shared" si="7"/>
-        <v>10.311493524807688</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+        <v>10.312168408725789</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>77</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>12.406418863100001</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
-        <v>10.859816771312328</v>
-      </c>
-      <c r="E82" s="16">
+        <v>10.860179879102757</v>
+      </c>
+      <c r="E82" s="14">
         <f t="shared" si="5"/>
-        <v>9.375085852292761E-2</v>
-      </c>
-      <c r="F82" s="18">
+        <v>9.3823255238349307E-2</v>
+      </c>
+      <c r="F82" s="16">
         <f t="shared" si="6"/>
-        <v>1.5030070372591036</v>
-      </c>
-      <c r="G82" s="14">
+        <v>1.50015740524022</v>
+      </c>
+      <c r="G82" s="13">
         <f t="shared" si="7"/>
-        <v>12.347135302169045</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
+        <v>12.343969237463703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>78</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>10.4711972619</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
-        <v>10.905917813236364</v>
-      </c>
-      <c r="E83" s="16">
+        <v>10.90608997990827</v>
+      </c>
+      <c r="E83" s="14">
         <f t="shared" si="5"/>
-        <v>8.5907698710750047E-2</v>
-      </c>
-      <c r="F83" s="19">
+        <v>8.5936750018704364E-2</v>
+      </c>
+      <c r="F83" s="17">
         <f t="shared" si="6"/>
-        <v>-0.30054907596864289</v>
-      </c>
-      <c r="G83" s="14">
+        <v>-0.29994952466479063</v>
+      </c>
+      <c r="G83" s="13">
         <f t="shared" si="7"/>
-        <v>10.653066790903406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
+        <v>10.65407189713984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>79</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="9">
         <v>10.4991653699</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
-        <v>11.046480971528377</v>
-      </c>
-      <c r="E84" s="24">
+        <v>11.046281056474644</v>
+      </c>
+      <c r="E84" s="22">
         <f t="shared" si="5"/>
-        <v>9.4903987357825861E-2</v>
-      </c>
-      <c r="F84" s="20">
+        <v>9.4867012168450837E-2</v>
+      </c>
+      <c r="F84" s="18">
         <f t="shared" si="6"/>
-        <v>-0.70131803241728241</v>
-      </c>
-      <c r="G84" s="14">
+        <v>-0.69991823451175983</v>
+      </c>
+      <c r="G84" s="13">
         <f t="shared" si="7"/>
-        <v>10.290556745544038</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="9" t="s">
+        <v>10.292087787656991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>80</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="20">
         <v>11.210817760199999</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="21">
         <f>$I$1*(C85-F81)+(1-$I$1)*(D84+E84)</f>
-        <v>11.29084359751517</v>
-      </c>
-      <c r="E85" s="23">
+        <v>11.290419780219874</v>
+      </c>
+      <c r="E85" s="21">
         <f>$J$1*(D85-D84)+(1-$J$1)*E84</f>
-        <v>0.11950487927615397</v>
-      </c>
-      <c r="F85" s="21">
-        <f>$K$1*(C85-D84-E84)+(1-K80)*F81</f>
-        <v>-0.50101307460060163</v>
-      </c>
-      <c r="G85" s="14">
+        <v>0.11943713589398874</v>
+      </c>
+      <c r="F85" s="19">
+        <f t="shared" si="6"/>
+        <v>-0.50001269167066087</v>
+      </c>
+      <c r="G85" s="13">
         <f>D84+E84+F81</f>
-        <v>10.640364941005469</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10.641078403036717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="23">
+        <f>F82</f>
+        <v>1.50015740524022</v>
+      </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="24">
+        <f>F83</f>
+        <v>-0.29994952466479063</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="25">
+        <f>F84</f>
+        <v>-0.69991823451175983</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="I89" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B90" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="21">
+        <f>D85</f>
+        <v>11.290419780219874</v>
+      </c>
+      <c r="E90" s="21">
+        <f>E85</f>
+        <v>0.11943713589398874</v>
+      </c>
+      <c r="F90" s="26">
+        <f>F85</f>
+        <v>-0.50001269167066087</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="35">
+        <v>1</v>
+      </c>
+      <c r="C91" s="27">
+        <f>INT((B91-1)/4)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" s="15">
-        <f>D85</f>
-        <v>11.29084359751517</v>
-      </c>
-      <c r="E88" s="15">
-        <f>E85</f>
-        <v>0.11950487927615397</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B89">
+      <c r="E91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="36" cm="1">
+        <f t="array" aca="1" ref="F91" ca="1">INDIRECT(I91)</f>
+        <v>1.50015740524022</v>
+      </c>
+      <c r="G91" s="32">
+        <f t="shared" ref="G91:G102" ca="1" si="8">$D$90+B91*$E$90+F91</f>
+        <v>12.910014321354083</v>
+      </c>
+      <c r="H91" s="27">
+        <f>4*(C91+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I91" s="27" t="str">
+        <f>"F" &amp; ROW()-H91</f>
+        <v>F87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="35">
+        <v>2</v>
+      </c>
+      <c r="C92" s="28">
+        <f t="shared" ref="C92:C102" si="9">INT((B92-1)/4)</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="37" cm="1">
+        <f t="array" aca="1" ref="F92" ca="1">INDIRECT(I92)</f>
+        <v>-0.29994952466479063</v>
+      </c>
+      <c r="G92" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.229344527343061</v>
+      </c>
+      <c r="H92" s="28">
+        <f>4*(C92+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I92" s="28" t="str">
+        <f t="shared" ref="I92:I102" si="10">"F" &amp; ROW()-H92</f>
+        <v>F88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="35">
+        <v>3</v>
+      </c>
+      <c r="C93" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="37" cm="1">
+        <f t="array" aca="1" ref="F93" ca="1">INDIRECT(I93)</f>
+        <v>-0.69991823451175983</v>
+      </c>
+      <c r="G93" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.948812953390082</v>
+      </c>
+      <c r="H93" s="28">
+        <f>4*(C93+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I93" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>F89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="35">
+        <v>4</v>
+      </c>
+      <c r="C94" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="38" cm="1">
+        <f t="array" aca="1" ref="F94" ca="1">INDIRECT(I94)</f>
+        <v>-0.50001269167066087</v>
+      </c>
+      <c r="G94" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.26815563212517</v>
+      </c>
+      <c r="H94" s="29">
+        <f t="shared" ref="H94:H102" si="11">4*(C94+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I94" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>F90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="35">
+        <v>5</v>
+      </c>
+      <c r="C95" s="27">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F89" s="18">
-        <f>F82</f>
-        <v>1.5030070372591036</v>
-      </c>
-      <c r="G89" s="14">
-        <f t="shared" ref="G89:G100" si="8">$D$88+B89*$E$88+F89</f>
-        <v>12.913355514050426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90">
+      <c r="D95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="36" cm="1">
+        <f t="array" aca="1" ref="F95" ca="1">INDIRECT(I95)</f>
+        <v>1.50015740524022</v>
+      </c>
+      <c r="G95" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.387762864930037</v>
+      </c>
+      <c r="H95" s="27">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="I95" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v>F87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="35">
+        <v>6</v>
+      </c>
+      <c r="C96" s="28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="37" cm="1">
+        <f t="array" aca="1" ref="F96" ca="1">INDIRECT(I96)</f>
+        <v>-0.29994952466479063</v>
+      </c>
+      <c r="G96" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.707093070919015</v>
+      </c>
+      <c r="H96" s="28">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="I96" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>F88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="35">
+        <v>7</v>
+      </c>
+      <c r="C97" s="28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="37" cm="1">
+        <f t="array" aca="1" ref="F97" ca="1">INDIRECT(I97)</f>
+        <v>-0.69991823451175983</v>
+      </c>
+      <c r="G97" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.426561496966036</v>
+      </c>
+      <c r="H97" s="28">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="I97" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>F89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="35">
+        <v>8</v>
+      </c>
+      <c r="C98" s="29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="38" cm="1">
+        <f t="array" aca="1" ref="F98" ca="1">INDIRECT(I98)</f>
+        <v>-0.50001269167066087</v>
+      </c>
+      <c r="G98" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.745904175701124</v>
+      </c>
+      <c r="H98" s="29">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="I98" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>F90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="35">
+        <v>9</v>
+      </c>
+      <c r="C99" s="27">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" s="19">
-        <f t="shared" ref="F90:F92" si="9">F83</f>
-        <v>-0.30054907596864289</v>
-      </c>
-      <c r="G90" s="14">
-        <f t="shared" si="8"/>
-        <v>11.229304280098836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="20">
+      <c r="D99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="36" cm="1">
+        <f t="array" aca="1" ref="F99" ca="1">INDIRECT(I99)</f>
+        <v>1.50015740524022</v>
+      </c>
+      <c r="G99" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.865511408505993</v>
+      </c>
+      <c r="H99" s="27">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="I99" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v>F87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="35">
+        <v>10</v>
+      </c>
+      <c r="C100" s="28">
         <f t="shared" si="9"/>
-        <v>-0.70131803241728241</v>
-      </c>
-      <c r="G91" s="14">
-        <f t="shared" si="8"/>
-        <v>10.94804020292635</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" s="21">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="37" cm="1">
+        <f t="array" aca="1" ref="F100" ca="1">INDIRECT(I100)</f>
+        <v>-0.29994952466479063</v>
+      </c>
+      <c r="G100" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>12.184841614494971</v>
+      </c>
+      <c r="H100" s="28">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="I100" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>F88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="35">
+        <v>11</v>
+      </c>
+      <c r="C101" s="28">
         <f t="shared" si="9"/>
-        <v>-0.50101307460060163</v>
-      </c>
-      <c r="G92" s="14">
-        <f t="shared" si="8"/>
-        <v>11.267850040019185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>5</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F93" s="18">
-        <f>F89</f>
-        <v>1.5030070372591036</v>
-      </c>
-      <c r="G93" s="14">
-        <f t="shared" si="8"/>
-        <v>13.391375031155043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>6</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F94" s="19">
-        <f t="shared" ref="F94:F100" si="10">F90</f>
-        <v>-0.30054907596864289</v>
-      </c>
-      <c r="G94" s="14">
-        <f t="shared" si="8"/>
-        <v>11.707323797203451</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B95">
-        <v>7</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F95" s="20">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="37" cm="1">
+        <f t="array" aca="1" ref="F101" ca="1">INDIRECT(I101)</f>
+        <v>-0.69991823451175983</v>
+      </c>
+      <c r="G101" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.904310040541992</v>
+      </c>
+      <c r="H101" s="28">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="I101" s="28" t="str">
         <f t="shared" si="10"/>
-        <v>-0.70131803241728241</v>
-      </c>
-      <c r="G95" s="14">
-        <f t="shared" si="8"/>
-        <v>11.426059720030967</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96">
-        <v>8</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96" s="21">
+        <v>F89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="35">
+        <v>12</v>
+      </c>
+      <c r="C102" s="29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="38" cm="1">
+        <f t="array" aca="1" ref="F102" ca="1">INDIRECT(I102)</f>
+        <v>-0.50001269167066087</v>
+      </c>
+      <c r="G102" s="34">
+        <f t="shared" ca="1" si="8"/>
+        <v>12.223652719277078</v>
+      </c>
+      <c r="H102" s="29">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="I102" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>-0.50101307460060163</v>
-      </c>
-      <c r="G96" s="14">
-        <f t="shared" si="8"/>
-        <v>11.7458695571238</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>9</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F97" s="18">
-        <f t="shared" si="10"/>
-        <v>1.5030070372591036</v>
-      </c>
-      <c r="G97" s="14">
-        <f t="shared" si="8"/>
-        <v>13.86939454825966</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>10</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F98" s="19">
-        <f t="shared" si="10"/>
-        <v>-0.30054907596864289</v>
-      </c>
-      <c r="G98" s="14">
-        <f t="shared" si="8"/>
-        <v>12.185343314308067</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>11</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F99" s="20">
-        <f t="shared" si="10"/>
-        <v>-0.70131803241728241</v>
-      </c>
-      <c r="G99" s="14">
-        <f t="shared" si="8"/>
-        <v>11.904079237135582</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100">
-        <v>12</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F100" s="21">
-        <f t="shared" si="10"/>
-        <v>-0.50101307460060163</v>
-      </c>
-      <c r="G100" s="14">
-        <f t="shared" si="8"/>
-        <v>12.223889074228417</v>
+        <v>F90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
